--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_ExtraInvitation_1.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_ExtraInvitation_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,43 +46,79 @@
     <t>李天然</t>
   </si>
   <si>
+    <t>LiTianRan</t>
+  </si>
+  <si>
+    <t>您好，约翰逊先生，真是久仰</t>
+  </si>
+  <si>
+    <t>Hello, Mr. Johnson, it's a pleasure to meet you.</t>
+  </si>
+  <si>
+    <t>约翰逊</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>不客气李先生，为我介绍一下你们的产品吧</t>
+  </si>
+  <si>
+    <t>You're welcome, Mr. Li. Please introduce your products to me.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>您好，约翰逊先生，真是久仰</t>
-  </si>
-  <si>
-    <t>约翰逊</t>
-  </si>
-  <si>
-    <t>不客气李先生，为我介绍一下你们的产品吧</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>下一步</t>
   </si>
   <si>
+    <t>Continue</t>
+  </si>
+  <si>
     <t>好的，我们工厂现在主推的产品有三种。</t>
   </si>
   <si>
+    <t>Okay, our factory currently mainly promotes three products.</t>
+  </si>
+  <si>
     <t>第一种是青瓷功夫茶具套装，采用龙泉本地高岭土烧制，釉色像雨后的青山，胎质细腻得能透光。我们特意对茶具的各种边角做了特殊处理，很多老茶客都夸握着顺手。上个月广州茶博会，光这一款就接了三百多套订单，不少茶行都说是今年的爆款。</t>
   </si>
   <si>
+    <t>The first is a celadon gongfu tea set, crafted from local Longquan kaolin. The glaze resembles a verdant mountain after rain, and the delicate texture allows light to shine through. We have specially treated the edges and corners of the tea set, and many long-time tea lovers praise its comfortable grip. At the Guangzhou Tea Expo last month, we received orders for over 300 sets of this model alone, and many tea shops have hailed it as this year's hot product.</t>
+  </si>
+  <si>
     <t>听起来很不错，那第二种呢？</t>
   </si>
   <si>
+    <t>Sounds good. What about the second one?</t>
+  </si>
+  <si>
     <t>第二种是玻璃蒸煮茶壶，跟青瓷走的路子完全不同。使用高硼硅玻璃制作，可以直接加热，壶身上有毫升刻度。壶盖内侧具备细密滤网，过滤效果非常好。欧美客户特别喜欢这个，去年给德国一家连锁超市供货，反馈说耐热性比当地品牌还好，回头客不少。</t>
   </si>
   <si>
+    <t>The second type is a glass steaming and brewing teapot, which follows a completely different path from celadon. Made of high borosilicate glass, it can be directly heated, and there are milliliter markings on the body of the teapot. The inside of the lid features a fine filter mesh, which provides excellent filtering effect. European and American customers particularly like this one. Last year, we supplied it to a German supermarket chain, and they reported that its heat resistance is even better than local brands, attracting many repeat customers.</t>
+  </si>
+  <si>
     <t>听着挺实用，最后一款茶具是什么样的呢</t>
   </si>
   <si>
+    <t>It sounds quite practical. What does the last tea set look like?</t>
+  </si>
+  <si>
     <t>就是这款手绘珐琅彩盖碗了。上面的缠枝莲纹，都是老师傅一笔笔画的，每个碗底都有签名，艺术价值很高！用的进口珐琅料要在八百度窑里烧三次，别说褪色了，就算用十年，图案还跟新的一样。上海的米其林茶馆上个月刚补了两百套，说用来招待 VIP 客人特别有面子。</t>
   </si>
   <si>
+    <t>This is the hand-painted enamel-glazed covered bowl. The intertwined lotus patterns on it are all carefully drawn by the master craftsman, and each bowl has a signature on the bottom, making it of high artistic value! The imported enamel material used needs to be fired three times in an 800-degree kiln. Not to mention fading, even after ten years, the patterns will still look as good as new. The Michelin-starred tea house in Shanghai just replenished 200 sets last month, saying that using them to entertain VIP guests is particularly prestigious.</t>
+  </si>
+  <si>
     <t>约翰逊先生，这三款的特点和市场反馈都给您介绍完了，不知道您对哪款更感兴趣？</t>
+  </si>
+  <si>
+    <t>Mr. Johnson, I have introduced to you the characteristics and market feedback of these three models. What do you think?Which one are you more interested in?"</t>
   </si>
 </sst>
 </file>
@@ -764,6 +800,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,7 +1062,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1049,35 +1092,35 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1088,10 +1131,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1102,24 +1145,24 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1130,24 +1173,24 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1158,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1172,24 +1215,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
